--- a/Configs/Herbs.xlsx
+++ b/Configs/Herbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11172687-51E2-425F-B5F5-F1AE6C612108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D030F65E-2BAD-4D81-AB73-FA909F396FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4597" yWindow="3780" windowWidth="20386" windowHeight="11873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="4575" windowWidth="20385" windowHeight="11873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,8 +109,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0：不可见
-1：可见
+FALSE：不可见
+TRUE：可见
 后同</t>
         </r>
       </text>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1062,26 +1062,26 @@
       <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>49</v>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>49</v>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>49</v>
+      <c r="K4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>49</v>
@@ -1124,26 +1124,26 @@
       <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>48</v>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>48</v>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>49</v>
+      <c r="K5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>50</v>
@@ -1186,26 +1186,26 @@
       <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>49</v>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>48</v>
+      <c r="I6" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>49</v>
+      <c r="K6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>51</v>
@@ -1248,26 +1248,26 @@
       <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
+      <c r="E7" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>48</v>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>48</v>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>48</v>
+      <c r="K7" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>52</v>

--- a/Configs/Herbs.xlsx
+++ b/Configs/Herbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D030F65E-2BAD-4D81-AB73-FA909F396FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36681C26-8EEC-48AC-8F1F-5D0694FDEB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="4575" windowWidth="20385" windowHeight="11873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1958" yWindow="2160" windowWidth="21600" windowHeight="11873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可采集声望区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采集重量区间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,14 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采集权重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50,250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,6 +478,14 @@
   </si>
   <si>
     <t>属性4是否可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集声望下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -877,25 +869,25 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>12</v>
@@ -904,25 +896,25 @@
         <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
@@ -936,55 +928,55 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
@@ -1001,25 +993,25 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>4</v>
@@ -1028,13 +1020,13 @@
         <v>4</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>5</v>
@@ -1051,250 +1043,250 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Herbs.xlsx
+++ b/Configs/Herbs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36681C26-8EEC-48AC-8F1F-5D0694FDEB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B833D-4389-4760-8FEB-FD7DC7641EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1958" yWindow="2160" windowWidth="21600" windowHeight="11873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="218" yWindow="293" windowWidth="25102" windowHeight="12907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,8 +80,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+-1：-
 1:+
+-2：--
 2:++
+-3：---
 3:+++
 后同</t>
         </r>
@@ -215,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="117">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,22 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>药材属性1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材属性2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材属性3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材属性4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采集解锁日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,38 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>棘皮草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹿角枝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄铜滚木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯芯铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unlockDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,6 +437,223 @@
   </si>
   <si>
     <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荧光球草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>雪花八角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黯叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩玫瑰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉石菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒挂蝠草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫磺藓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹节芦苇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人皇冠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡一指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑化藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云长参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百目莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤蝶牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述3</t>
+  </si>
+  <si>
+    <t>描述4</t>
+  </si>
+  <si>
+    <t>描述5</t>
+  </si>
+  <si>
+    <t>描述6</t>
+  </si>
+  <si>
+    <t>描述7</t>
+  </si>
+  <si>
+    <t>描述8</t>
+  </si>
+  <si>
+    <t>描述9</t>
+  </si>
+  <si>
+    <t>描述10</t>
+  </si>
+  <si>
+    <t>描述11</t>
+  </si>
+  <si>
+    <t>描述12</t>
+  </si>
+  <si>
+    <t>描述13</t>
+  </si>
+  <si>
+    <t>描述14</t>
+  </si>
+  <si>
+    <t>描述15</t>
+  </si>
+  <si>
+    <t>描述16</t>
+  </si>
+  <si>
+    <t>药材属性1（阳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材属性2（阴）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材属性3（热）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材属性4（寒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,9 +712,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -827,10 +1002,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -838,455 +1016,1265 @@
     <col min="1" max="1" width="9.06640625" style="1"/>
     <col min="2" max="2" width="15.06640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.46484375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.86328125" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.796875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.06640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.59765625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.73046875" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
+    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="O3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="R3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="b">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1" t="b">
+        <v>104</v>
+      </c>
+      <c r="G4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1" t="b">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="1" t="b">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>44</v>
+      <c r="Q4" s="4" t="str">
+        <f>"Arts\Icon\Herbs\"&amp;A4</f>
+        <v>Arts\Icon\Herbs\1001</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f>"Arts\Icon\Heap\"&amp;A4&amp;"a"</f>
+        <v>Arts\Icon\Heap\1001a</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f>"Arts\Icon\Heap\"&amp;A4&amp;"b"</f>
+        <v>Arts\Icon\Heap\1001b</v>
+      </c>
+      <c r="T4" s="4" t="str">
+        <f>"Arts\Icon\Heap\"&amp;A4&amp;"c"</f>
+        <v>Arts\Icon\Heap\1001c</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1" t="b">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>44</v>
+      <c r="Q5" s="4" t="str">
+        <f t="shared" ref="Q5:Q19" si="0">"Arts\Icon\Herbs\"&amp;A5</f>
+        <v>Arts\Icon\Herbs\1002</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f t="shared" ref="R5:R19" si="1">"Arts\Icon\Heap\"&amp;A5&amp;"a"</f>
+        <v>Arts\Icon\Heap\1002a</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f t="shared" ref="S5:S19" si="2">"Arts\Icon\Heap\"&amp;A5&amp;"b"</f>
+        <v>Arts\Icon\Heap\1002b</v>
+      </c>
+      <c r="T5" s="4" t="str">
+        <f t="shared" ref="T5:T19" si="3">"Arts\Icon\Heap\"&amp;A5&amp;"c"</f>
+        <v>Arts\Icon\Heap\1002c</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="1" t="b">
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="1" t="b">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>44</v>
+      <c r="Q6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1003</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1003a</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1003b</v>
+      </c>
+      <c r="T6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1003c</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1004</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1004a</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1004b</v>
+      </c>
+      <c r="T7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1004c</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="O8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1005</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1005a</v>
+      </c>
+      <c r="S8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1005b</v>
+      </c>
+      <c r="T8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1005c</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>44</v>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1006</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1006a</v>
+      </c>
+      <c r="S9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1006b</v>
+      </c>
+      <c r="T9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1006c</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1007</v>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1007a</v>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1007b</v>
+      </c>
+      <c r="T10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1007c</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1008</v>
+      </c>
+      <c r="R11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1008a</v>
+      </c>
+      <c r="S11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1008b</v>
+      </c>
+      <c r="T11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1008c</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1009</v>
+      </c>
+      <c r="R12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1009a</v>
+      </c>
+      <c r="S12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1009b</v>
+      </c>
+      <c r="T12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1009c</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1010</v>
+      </c>
+      <c r="R13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1010a</v>
+      </c>
+      <c r="S13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1010b</v>
+      </c>
+      <c r="T13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1010c</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1011</v>
+      </c>
+      <c r="R14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1011a</v>
+      </c>
+      <c r="S14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1011b</v>
+      </c>
+      <c r="T14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1011c</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1012</v>
+      </c>
+      <c r="R15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1012a</v>
+      </c>
+      <c r="S15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1012b</v>
+      </c>
+      <c r="T15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1012c</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1013</v>
+      </c>
+      <c r="R16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1013a</v>
+      </c>
+      <c r="S16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1013b</v>
+      </c>
+      <c r="T16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1013c</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1014</v>
+      </c>
+      <c r="R17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1014a</v>
+      </c>
+      <c r="S17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1014b</v>
+      </c>
+      <c r="T17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1014c</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1015</v>
+      </c>
+      <c r="R18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1015a</v>
+      </c>
+      <c r="S18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1015b</v>
+      </c>
+      <c r="T18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1015c</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Arts\Icon\Herbs\1016</v>
+      </c>
+      <c r="R19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Arts\Icon\Heap\1016a</v>
+      </c>
+      <c r="S19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Arts\Icon\Heap\1016b</v>
+      </c>
+      <c r="T19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Arts\Icon\Heap\1016c</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Herbs.xlsx
+++ b/Configs/Herbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B833D-4389-4760-8FEB-FD7DC7641EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5DFDA4-664C-4EEF-A024-30758497E9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="218" yWindow="293" windowWidth="25102" windowHeight="12907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6638" yWindow="3540" windowWidth="18007" windowHeight="12908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="115">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,14 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,22 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iconPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,10 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,11 +621,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,80</t>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,10 +997,10 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1046,28 +1038,28 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>8</v>
@@ -1076,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>27</v>
@@ -1144,19 +1136,19 @@
         <v>28</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1173,25 +1165,25 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>4</v>
@@ -1223,52 +1215,52 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="4" t="str">
         <f>"Arts\Icon\Herbs\"&amp;A4</f>
@@ -1289,52 +1281,52 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="Q5" s="4" t="str">
         <f t="shared" ref="Q5:Q19" si="0">"Arts\Icon\Herbs\"&amp;A5</f>
@@ -1355,52 +1347,52 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="Q6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1421,52 +1413,52 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="Q7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1487,52 +1479,52 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1553,52 +1545,52 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1619,52 +1611,52 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1685,52 +1677,52 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="N11" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1751,52 +1743,52 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="O12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1817,52 +1809,52 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="O13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1883,52 +1875,52 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I14" s="2" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="O14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1949,52 +1941,52 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="N15" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2015,52 +2007,52 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="O16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2081,52 +2073,52 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="O17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2147,52 +2139,52 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K18" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="O18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2213,52 +2205,52 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K19" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="O19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="4" t="str">
         <f t="shared" si="0"/>

--- a/Configs/Herbs.xlsx
+++ b/Configs/Herbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5DFDA4-664C-4EEF-A024-30758497E9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6595375-980D-4A34-A29C-672DE1F09E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6638" yWindow="3540" windowWidth="18007" windowHeight="12908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,56 +516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述3</t>
-  </si>
-  <si>
-    <t>描述4</t>
-  </si>
-  <si>
-    <t>描述5</t>
-  </si>
-  <si>
-    <t>描述6</t>
-  </si>
-  <si>
-    <t>描述7</t>
-  </si>
-  <si>
-    <t>描述8</t>
-  </si>
-  <si>
-    <t>描述9</t>
-  </si>
-  <si>
-    <t>描述10</t>
-  </si>
-  <si>
-    <t>描述11</t>
-  </si>
-  <si>
-    <t>描述12</t>
-  </si>
-  <si>
-    <t>描述13</t>
-  </si>
-  <si>
-    <t>描述14</t>
-  </si>
-  <si>
-    <t>描述15</t>
-  </si>
-  <si>
-    <t>描述16</t>
-  </si>
-  <si>
     <t>药材属性1（阳）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,6 +596,70 @@
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在岩洞中常见的药草，最大的特征是其灯泡一样会发光的种荚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因其岩浆一般的花瓣花纹而得名，被它茎上的刺刺中会遭受灼烧般的剧痛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有漆黑巨叶的灌木植物，据说其无法进行光合作用，而是直接吸收光能为生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长相酷似雪花的八角，待它成熟时在树干上来那么一脚，立刻体验下雪的感觉（就是砸在身上有点疼）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外表如碧玉一般的绿色蘑菇，经常被国宝帮加工成假玉佩并拿去华山论鉴鉴宝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形似倒挂着的蝙蝠，其枝条会攀附到高处倒挂着生长。成熟后会脱落并随风飘扬，吸引大型鸟类捕食。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长得像硫磺，闻起来像硫磺，烧起来像硫磺，那他就是硫磺。 —— 刘皇叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请看视频【BV1iK4y1W7uD】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说是仙人所戴的皇冠，因其频频低头而掉落至凡间。实际上就是一长得难看的草本植物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你发出负能量并贯穿施法距离内你能看见的一个生物使其承受苦痛。该生物必须进行一次体质豁免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种下的短暂时间后，对全场僵尸施加冰冻效果和后续的减速效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原意是将人参须画成胡须，结果画成了手脚，现在不如叫大番薯参。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我苏醒之日……便是你命丧之时……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来就很燃的花，稀有的原因是经常被人当作是山火而踩烂掉，所以最好不要晚上去采。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常稀有的高价值药材，长着蝴蝶一般的花瓣与犬齿一般的花蕊。下午的时候会莫名的枯萎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半吸盘半棘刺的神秘藤蔓，和某个神秘宗教有着密切联系，必须在日落之后的幽暗之处才能找到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,10 +1011,10 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1038,25 +1052,25 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>47</v>
@@ -1221,7 +1235,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -1230,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="b">
         <v>1</v>
@@ -1251,7 +1265,7 @@
         <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>30</v>
@@ -1260,7 +1274,7 @@
         <v>29</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="4" t="str">
         <f>"Arts\Icon\Herbs\"&amp;A4</f>
@@ -1287,7 +1301,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -1305,19 +1319,19 @@
         <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>30</v>
@@ -1326,7 +1340,7 @@
         <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="4" t="str">
         <f t="shared" ref="Q5:Q19" si="0">"Arts\Icon\Herbs\"&amp;A5</f>
@@ -1353,7 +1367,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -1368,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="b">
         <v>0</v>
@@ -1383,16 +1397,16 @@
         <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1419,10 +1433,10 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
@@ -1431,25 +1445,25 @@
         <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>30</v>
@@ -1458,7 +1472,7 @@
         <v>29</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1485,7 +1499,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
@@ -1497,25 +1511,25 @@
         <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>49</v>
@@ -1524,7 +1538,7 @@
         <v>29</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1551,7 +1565,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -1566,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
@@ -1581,7 +1595,7 @@
         <v>33</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
@@ -1590,7 +1604,7 @@
         <v>29</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1617,7 +1631,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
@@ -1626,10 +1640,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>30</v>
@@ -1647,7 +1661,7 @@
         <v>33</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
@@ -1656,7 +1670,7 @@
         <v>29</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1683,13 +1697,13 @@
         <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>30</v>
@@ -1713,7 +1727,7 @@
         <v>33</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
@@ -1722,7 +1736,7 @@
         <v>29</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1749,7 +1763,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
@@ -1770,25 +1784,25 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="Q12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1815,13 +1829,13 @@
         <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>32</v>
@@ -1842,19 +1856,19 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1881,13 +1895,13 @@
         <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>30</v>
@@ -1902,25 +1916,25 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1947,7 +1961,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>30</v>
@@ -1959,13 +1973,13 @@
         <v>32</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>33</v>
@@ -1974,19 +1988,19 @@
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2013,7 +2027,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
@@ -2028,31 +2042,31 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="M16" s="1" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2079,7 +2093,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>33</v>
@@ -2088,16 +2102,16 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>30</v>
@@ -2106,19 +2120,19 @@
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2145,19 +2159,19 @@
         <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>30</v>
@@ -2172,19 +2186,19 @@
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2211,7 +2225,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>30</v>
@@ -2220,10 +2234,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>33</v>
@@ -2235,22 +2249,22 @@
         <v>32</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="4" t="str">
         <f t="shared" si="0"/>

--- a/Configs/Herbs.xlsx
+++ b/Configs/Herbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6595375-980D-4A34-A29C-672DE1F09E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F83FE-1C8A-4046-9347-B26064629F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10425" yWindow="3683" windowWidth="16583" windowHeight="13649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="115">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1014,7 +1014,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1324,8 +1324,8 @@
       <c r="J5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>84</v>
+      <c r="K5" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>31</v>

--- a/Configs/Herbs.xlsx
+++ b/Configs/Herbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F83FE-1C8A-4046-9347-B26064629F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B310B1-A505-450D-BB7E-7C4CCBD16888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10425" yWindow="3683" windowWidth="16583" windowHeight="13649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4613" yWindow="1650" windowWidth="16582" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="115">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1011,10 +1011,10 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1918,8 +1918,8 @@
       <c r="J14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>84</v>
+      <c r="K14" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>87</v>
@@ -2110,8 +2110,8 @@
       <c r="H17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>84</v>
+      <c r="I17" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>30</v>
@@ -2248,8 +2248,8 @@
       <c r="J19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>84</v>
+      <c r="K19" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>98</v>

--- a/Configs/Herbs.xlsx
+++ b/Configs/Herbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B310B1-A505-450D-BB7E-7C4CCBD16888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA73DC7-972F-4553-9A1A-F0384EBA064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4613" yWindow="1650" windowWidth="16582" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="116">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,22 +555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,6 +645,21 @@
   <si>
     <t>半吸盘半棘刺的神秘藤蔓，和某个神秘宗教有着密切联系，必须在日落之后的幽暗之处才能找到</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,4,5</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>0,1,2,3</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1013,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1235,7 +1234,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -1265,7 +1264,7 @@
         <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>30</v>
@@ -1274,7 +1273,7 @@
         <v>29</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="4" t="str">
         <f>"Arts\Icon\Herbs\"&amp;A4</f>
@@ -1301,7 +1300,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -1331,7 +1330,7 @@
         <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>30</v>
@@ -1340,7 +1339,7 @@
         <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="4" t="str">
         <f t="shared" ref="Q5:Q19" si="0">"Arts\Icon\Herbs\"&amp;A5</f>
@@ -1367,7 +1366,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -1397,7 +1396,7 @@
         <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>85</v>
@@ -1406,7 +1405,7 @@
         <v>29</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1433,7 +1432,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>82</v>
@@ -1463,7 +1462,7 @@
         <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>30</v>
@@ -1472,7 +1471,7 @@
         <v>29</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1499,7 +1498,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
@@ -1529,7 +1528,7 @@
         <v>33</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>49</v>
@@ -1538,7 +1537,7 @@
         <v>29</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1565,7 +1564,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -1595,7 +1594,7 @@
         <v>33</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
@@ -1604,7 +1603,7 @@
         <v>29</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1631,7 +1630,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
@@ -1661,7 +1660,7 @@
         <v>33</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
@@ -1670,7 +1669,7 @@
         <v>29</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1697,7 +1696,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
@@ -1727,7 +1726,7 @@
         <v>33</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
@@ -1736,7 +1735,7 @@
         <v>29</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1763,7 +1762,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
@@ -1793,16 +1792,16 @@
         <v>87</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1829,7 +1828,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>86</v>
@@ -1859,16 +1858,16 @@
         <v>87</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1895,7 +1894,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
@@ -1925,16 +1924,16 @@
         <v>87</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1961,7 +1960,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>30</v>
@@ -1991,16 +1990,16 @@
         <v>87</v>
       </c>
       <c r="M15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2027,7 +2026,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
@@ -2054,19 +2053,19 @@
         <v>84</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2093,7 +2092,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>33</v>
@@ -2120,19 +2119,19 @@
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2159,7 +2158,7 @@
         <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>32</v>
@@ -2186,19 +2185,19 @@
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2225,7 +2224,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>30</v>
@@ -2252,19 +2251,19 @@
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="4" t="str">
         <f t="shared" si="0"/>

--- a/Configs/Herbs.xlsx
+++ b/Configs/Herbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA73DC7-972F-4553-9A1A-F0384EBA064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85E2D6-6465-49CF-A2DA-0FD7783B0CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2062" windowWidth="24623" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,10 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在岩洞中常见的药草，最大的特征是其灯泡一样会发光的种荚。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -660,6 +656,10 @@
   </si>
   <si>
     <t>0,1,2,3</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1234,7 +1234,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -1264,7 +1264,7 @@
         <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>30</v>
@@ -1300,7 +1300,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -1330,7 +1330,7 @@
         <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>30</v>
@@ -1366,7 +1366,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -1396,7 +1396,7 @@
         <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>85</v>
@@ -1432,7 +1432,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>82</v>
@@ -1462,7 +1462,7 @@
         <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>30</v>
@@ -1498,7 +1498,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
@@ -1525,10 +1525,10 @@
         <v>84</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>49</v>
@@ -1564,7 +1564,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -1591,10 +1591,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
@@ -1630,7 +1630,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
@@ -1657,10 +1657,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
@@ -1696,7 +1696,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
@@ -1723,10 +1723,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
@@ -1762,7 +1762,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
@@ -1789,10 +1789,10 @@
         <v>84</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>88</v>
@@ -1828,7 +1828,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>86</v>
@@ -1855,10 +1855,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>88</v>
@@ -1894,7 +1894,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
@@ -1921,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>88</v>
@@ -1960,7 +1960,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>30</v>
@@ -1987,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>88</v>
@@ -2026,7 +2026,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
@@ -2053,10 +2053,10 @@
         <v>84</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>89</v>
@@ -2092,7 +2092,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>33</v>
@@ -2119,10 +2119,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>89</v>
@@ -2158,7 +2158,7 @@
         <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>32</v>
@@ -2185,10 +2185,10 @@
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>89</v>
@@ -2224,7 +2224,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>30</v>
@@ -2251,10 +2251,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>89</v>

--- a/Configs/Herbs.xlsx
+++ b/Configs/Herbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85E2D6-6465-49CF-A2DA-0FD7783B0CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77DD60B-2A14-4B06-9B36-DA657EF44770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="2062" windowWidth="24623" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2033" yWindow="2040" windowWidth="24622" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="115">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,34 +551,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在岩洞中常见的药草，最大的特征是其灯泡一样会发光的种荚。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,7 +634,27 @@
     <t>0,1,2,3</t>
   </si>
   <si>
-    <t>4</t>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,7 +1009,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1234,7 +1230,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -1264,16 +1260,16 @@
         <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="4" t="str">
         <f>"Arts\Icon\Herbs\"&amp;A4</f>
@@ -1300,7 +1296,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -1330,16 +1326,16 @@
         <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="4" t="str">
         <f t="shared" ref="Q5:Q19" si="0">"Arts\Icon\Herbs\"&amp;A5</f>
@@ -1366,7 +1362,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -1396,16 +1392,16 @@
         <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1432,7 +1428,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>82</v>
@@ -1462,16 +1458,16 @@
         <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1498,7 +1494,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
@@ -1525,19 +1521,19 @@
         <v>84</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1564,7 +1560,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
@@ -1591,19 +1587,19 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1630,7 +1626,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
@@ -1657,19 +1653,19 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1696,7 +1692,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
@@ -1723,19 +1719,19 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1762,7 +1758,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
@@ -1789,19 +1785,19 @@
         <v>84</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="Q12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1828,7 +1824,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>86</v>
@@ -1855,19 +1851,19 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1894,7 +1890,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
@@ -1921,19 +1917,19 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1960,7 +1956,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>30</v>
@@ -1987,19 +1983,19 @@
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2026,7 +2022,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
@@ -2053,19 +2049,19 @@
         <v>84</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2092,7 +2088,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>33</v>
@@ -2119,19 +2115,19 @@
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2158,7 +2154,7 @@
         <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>32</v>
@@ -2185,19 +2181,19 @@
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2224,7 +2220,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>30</v>
@@ -2251,19 +2247,19 @@
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="4" t="str">
         <f t="shared" si="0"/>
